--- a/KPN_global_pvalues_wardcategorized_gender_age_allabx.xlsx
+++ b/KPN_global_pvalues_wardcategorized_gender_age_allabx.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C46"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1049,6 +1049,81 @@
         <v>0.04996875830311533</v>
       </c>
     </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>SXT</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Year</t>
+        </is>
+      </c>
+      <c r="C47">
+        <v>0.001920012610919285</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>SXT</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Specimen_type</t>
+        </is>
+      </c>
+      <c r="C48">
+        <v>0.06206679387812179</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>SXT</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Gender</t>
+        </is>
+      </c>
+      <c r="C49">
+        <v>8.739521480219351e-05</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>SXT</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Age_cat</t>
+        </is>
+      </c>
+      <c r="C50">
+        <v>0.4722429984634713</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>SXT</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Hospital:Ward_ED_ICU</t>
+        </is>
+      </c>
+      <c r="C51">
+        <v>0.0005552045233266024</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/KPN_global_pvalues_wardcategorized_gender_age_allabx.xlsx
+++ b/KPN_global_pvalues_wardcategorized_gender_age_allabx.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C51"/>
+  <dimension ref="A1:C56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1124,6 +1124,81 @@
         <v>0.0005552045233266024</v>
       </c>
     </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>TZP</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Year</t>
+        </is>
+      </c>
+      <c r="C52">
+        <v>0.5590485170101787</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>TZP</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Specimen_type</t>
+        </is>
+      </c>
+      <c r="C53">
+        <v>0.0007520966514480875</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>TZP</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Gender</t>
+        </is>
+      </c>
+      <c r="C54">
+        <v>0.9523860337458645</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>TZP</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Age_cat</t>
+        </is>
+      </c>
+      <c r="C55">
+        <v>0.4120654748312703</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>TZP</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Hospital:Ward_ED_ICU</t>
+        </is>
+      </c>
+      <c r="C56">
+        <v>0.01069603380249411</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
